--- a/medicine/Pharmacie/1877_en_santé_et_médecine/1877_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1877_en_santé_et_médecine/1877_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1877_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1877_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1877 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1877_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1877_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>29 avril : Louis Pasteur découvre le bacille de la maladie du charbon.
 21 septembre : fondation à Genève, de la Croix-Bleue, association de lutte contre l'alcoolisme.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1877_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1877_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>3 mai : Karl Abraham (mort en 1925), psychiatre et psychanalyste allemand.
 19 novembre : André Corvington (mort en 1918), médecin et escrimeur olympique franco-haïtien.</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1877_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1877_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>10 mars : Henri-Ferdinand Dolbeau (né en 1830), chirurgien.
 9 septembre : Filippo Parlatore (né en 1816), médecin et botaniste italien.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1877_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1877_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Portail de la médecine   Portail de la pharmacie   Portail des soins infirmiers   Portail de la folie   Portail des années 1870                 </t>
